--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.217379666666667</v>
+        <v>0.9950096666666667</v>
       </c>
       <c r="N2">
-        <v>3.652139</v>
+        <v>2.985029</v>
       </c>
       <c r="O2">
-        <v>0.1684968937451138</v>
+        <v>0.06182500846797627</v>
       </c>
       <c r="P2">
-        <v>0.1684968937451139</v>
+        <v>0.06182500846797626</v>
       </c>
       <c r="Q2">
-        <v>1.116783932671</v>
+        <v>1.243125940486445</v>
       </c>
       <c r="R2">
-        <v>10.051055394039</v>
+        <v>11.188133464378</v>
       </c>
       <c r="S2">
-        <v>0.06648603342690788</v>
+        <v>0.0268183858278069</v>
       </c>
       <c r="T2">
-        <v>0.06648603342690788</v>
+        <v>0.02681838582780689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.353027666666667</v>
+        <v>1.217379666666667</v>
       </c>
       <c r="N3">
-        <v>7.059083</v>
+        <v>3.652139</v>
       </c>
       <c r="O3">
-        <v>0.3256813495293962</v>
+        <v>0.07564198692918106</v>
       </c>
       <c r="P3">
-        <v>0.3256813495293963</v>
+        <v>0.07564198692918103</v>
       </c>
       <c r="Q3">
-        <v>2.158589931487</v>
+        <v>1.520946271933111</v>
       </c>
       <c r="R3">
-        <v>19.427309383383</v>
+        <v>13.688516447398</v>
       </c>
       <c r="S3">
-        <v>0.1285083695613221</v>
+        <v>0.03281189991748183</v>
       </c>
       <c r="T3">
-        <v>0.1285083695613221</v>
+        <v>0.03281189991748181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3114066666666667</v>
+        <v>7.845392666666666</v>
       </c>
       <c r="N4">
-        <v>0.9342200000000001</v>
+        <v>23.536178</v>
       </c>
       <c r="O4">
-        <v>0.04310163662296541</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="P4">
-        <v>0.04310163662296541</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="Q4">
-        <v>0.28567419958</v>
+        <v>9.801725012288445</v>
       </c>
       <c r="R4">
-        <v>2.57106779622</v>
+        <v>88.215525110596</v>
       </c>
       <c r="S4">
-        <v>0.01700717912108107</v>
+        <v>0.2114560034478527</v>
       </c>
       <c r="T4">
-        <v>0.01700717912108107</v>
+        <v>0.2114560034478527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H5">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.343124333333333</v>
+        <v>0.3006066666666667</v>
       </c>
       <c r="N5">
-        <v>10.029373</v>
+        <v>0.9018200000000001</v>
       </c>
       <c r="O5">
-        <v>0.4627201201025244</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="P5">
-        <v>0.4627201201025245</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="Q5">
-        <v>3.066871940297</v>
+        <v>0.3755661454711112</v>
       </c>
       <c r="R5">
-        <v>27.601847462673</v>
+        <v>3.380095309240001</v>
       </c>
       <c r="S5">
-        <v>0.1825815579661473</v>
+        <v>0.00810221833933031</v>
       </c>
       <c r="T5">
-        <v>0.1825815579661473</v>
+        <v>0.008102218339330306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.824043</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H6">
-        <v>2.472129</v>
+        <v>3.748082</v>
       </c>
       <c r="I6">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J6">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.217379666666667</v>
+        <v>5.735578666666666</v>
       </c>
       <c r="N6">
-        <v>3.652139</v>
+        <v>17.206736</v>
       </c>
       <c r="O6">
-        <v>0.1684968937451138</v>
+        <v>0.3563806579119439</v>
       </c>
       <c r="P6">
-        <v>0.1684968937451139</v>
+        <v>0.3563806579119438</v>
       </c>
       <c r="Q6">
-        <v>1.003173192659</v>
+        <v>7.165806386705778</v>
       </c>
       <c r="R6">
-        <v>9.028558733931</v>
+        <v>64.492257480352</v>
       </c>
       <c r="S6">
-        <v>0.0597223907587797</v>
+        <v>0.1545904193511067</v>
       </c>
       <c r="T6">
-        <v>0.05972239075877971</v>
+        <v>0.1545904193511067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.353027666666667</v>
+        <v>0.9950096666666667</v>
       </c>
       <c r="N7">
-        <v>7.059083</v>
+        <v>2.985029</v>
       </c>
       <c r="O7">
-        <v>0.3256813495293962</v>
+        <v>0.06182500846797627</v>
       </c>
       <c r="P7">
-        <v>0.3256813495293963</v>
+        <v>0.06182500846797626</v>
       </c>
       <c r="Q7">
-        <v>1.938995977523</v>
+        <v>0.819930750749</v>
       </c>
       <c r="R7">
-        <v>17.450963797707</v>
+        <v>7.379376756740999</v>
       </c>
       <c r="S7">
-        <v>0.1154351773918405</v>
+        <v>0.01768864964483446</v>
       </c>
       <c r="T7">
-        <v>0.1154351773918405</v>
+        <v>0.01768864964483445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3114066666666667</v>
+        <v>1.217379666666667</v>
       </c>
       <c r="N8">
-        <v>0.9342200000000001</v>
+        <v>3.652139</v>
       </c>
       <c r="O8">
-        <v>0.04310163662296541</v>
+        <v>0.07564198692918106</v>
       </c>
       <c r="P8">
-        <v>0.04310163662296541</v>
+        <v>0.07564198692918103</v>
       </c>
       <c r="Q8">
-        <v>0.25661248382</v>
+        <v>1.003173192659</v>
       </c>
       <c r="R8">
-        <v>2.30951235438</v>
+        <v>9.028558733931</v>
       </c>
       <c r="S8">
-        <v>0.01527703405994875</v>
+        <v>0.02164180221540095</v>
       </c>
       <c r="T8">
-        <v>0.01527703405994875</v>
+        <v>0.02164180221540094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.343124333333333</v>
+        <v>7.845392666666666</v>
       </c>
       <c r="N9">
-        <v>10.029373</v>
+        <v>23.536178</v>
       </c>
       <c r="O9">
-        <v>0.4627201201025244</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="P9">
-        <v>0.4627201201025245</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="Q9">
-        <v>2.754878205013</v>
+        <v>6.464940909217999</v>
       </c>
       <c r="R9">
-        <v>24.793903845117</v>
+        <v>58.18446818296199</v>
       </c>
       <c r="S9">
-        <v>0.1640074853042435</v>
+        <v>0.1394704060230104</v>
       </c>
       <c r="T9">
-        <v>0.1640074853042435</v>
+        <v>0.1394704060230103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.172111</v>
+        <v>0.824043</v>
       </c>
       <c r="H10">
-        <v>0.5163329999999999</v>
+        <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.07402936755031217</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J10">
-        <v>0.07402936755031216</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.217379666666667</v>
+        <v>0.3006066666666667</v>
       </c>
       <c r="N10">
-        <v>3.652139</v>
+        <v>0.9018200000000001</v>
       </c>
       <c r="O10">
-        <v>0.1684968937451138</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="P10">
-        <v>0.1684968937451139</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="Q10">
-        <v>0.2095244318096667</v>
+        <v>0.24771281942</v>
       </c>
       <c r="R10">
-        <v>1.885719886287</v>
+        <v>2.22941537478</v>
       </c>
       <c r="S10">
-        <v>0.01247371847814293</v>
+        <v>0.005343994320559235</v>
       </c>
       <c r="T10">
-        <v>0.01247371847814293</v>
+        <v>0.005343994320559233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.172111</v>
+        <v>0.824043</v>
       </c>
       <c r="H11">
-        <v>0.5163329999999999</v>
+        <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.07402936755031217</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J11">
-        <v>0.07402936755031216</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.353027666666667</v>
+        <v>5.735578666666666</v>
       </c>
       <c r="N11">
-        <v>7.059083</v>
+        <v>17.206736</v>
       </c>
       <c r="O11">
-        <v>0.3256813495293962</v>
+        <v>0.3563806579119439</v>
       </c>
       <c r="P11">
-        <v>0.3256813495293963</v>
+        <v>0.3563806579119438</v>
       </c>
       <c r="Q11">
-        <v>0.4049819447376666</v>
+        <v>4.726363451216</v>
       </c>
       <c r="R11">
-        <v>3.644837502639</v>
+        <v>42.53727106094399</v>
       </c>
       <c r="S11">
-        <v>0.02410998432859336</v>
+        <v>0.1019634732644675</v>
       </c>
       <c r="T11">
-        <v>0.02410998432859336</v>
+        <v>0.1019634732644675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H12">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I12">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J12">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.3114066666666667</v>
+        <v>0.9950096666666667</v>
       </c>
       <c r="N12">
-        <v>0.9342200000000001</v>
+        <v>2.985029</v>
       </c>
       <c r="O12">
-        <v>0.04310163662296541</v>
+        <v>0.06182500846797627</v>
       </c>
       <c r="P12">
-        <v>0.04310163662296541</v>
+        <v>0.06182500846797626</v>
       </c>
       <c r="Q12">
-        <v>0.05359651280666666</v>
+        <v>0.04023620090066667</v>
       </c>
       <c r="R12">
-        <v>0.48236861526</v>
+        <v>0.362125808106</v>
       </c>
       <c r="S12">
-        <v>0.003190786899581502</v>
+        <v>0.0008680294770270676</v>
       </c>
       <c r="T12">
-        <v>0.003190786899581502</v>
+        <v>0.0008680294770270673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.040438</v>
+      </c>
+      <c r="H13">
+        <v>0.121314</v>
+      </c>
+      <c r="I13">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="J13">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.172111</v>
-      </c>
-      <c r="H13">
-        <v>0.5163329999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.07402936755031217</v>
-      </c>
-      <c r="J13">
-        <v>0.07402936755031216</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>3.343124333333333</v>
+        <v>1.217379666666667</v>
       </c>
       <c r="N13">
-        <v>10.029373</v>
+        <v>3.652139</v>
       </c>
       <c r="O13">
-        <v>0.4627201201025244</v>
+        <v>0.07564198692918106</v>
       </c>
       <c r="P13">
-        <v>0.4627201201025245</v>
+        <v>0.07564198692918103</v>
       </c>
       <c r="Q13">
-        <v>0.5753884721343333</v>
+        <v>0.04922839896066667</v>
       </c>
       <c r="R13">
-        <v>5.178496249208999</v>
+        <v>0.443055590646</v>
       </c>
       <c r="S13">
-        <v>0.03425487784399437</v>
+        <v>0.00106202127557225</v>
       </c>
       <c r="T13">
-        <v>0.03425487784399437</v>
+        <v>0.00106202127557225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,87 +1275,87 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H14">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I14">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J14">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217379666666667</v>
+        <v>7.845392666666666</v>
       </c>
       <c r="N14">
-        <v>3.652139</v>
+        <v>23.536178</v>
       </c>
       <c r="O14">
-        <v>0.1684968937451138</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="P14">
-        <v>0.1684968937451139</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="Q14">
-        <v>0.4072544836154445</v>
+        <v>0.3172519886546666</v>
       </c>
       <c r="R14">
-        <v>3.665290352539</v>
+        <v>2.855267897892</v>
       </c>
       <c r="S14">
-        <v>0.02424527647541939</v>
+        <v>0.006844186867382519</v>
       </c>
       <c r="T14">
-        <v>0.02424527647541939</v>
+        <v>0.006844186867382518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H15">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I15">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J15">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.353027666666667</v>
+        <v>0.3006066666666667</v>
       </c>
       <c r="N15">
-        <v>7.059083</v>
+        <v>0.9018200000000001</v>
       </c>
       <c r="O15">
-        <v>0.3256813495293962</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="P15">
-        <v>0.3256813495293963</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="Q15">
-        <v>0.7871669730981111</v>
+        <v>0.01215593238666667</v>
       </c>
       <c r="R15">
-        <v>7.084502757883</v>
+        <v>0.10940339148</v>
       </c>
       <c r="S15">
-        <v>0.04686278890204698</v>
+        <v>0.0002622441332973817</v>
       </c>
       <c r="T15">
-        <v>0.04686278890204699</v>
+        <v>0.0002622441332973817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H16">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I16">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J16">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3114066666666667</v>
+        <v>5.735578666666666</v>
       </c>
       <c r="N16">
-        <v>0.9342200000000001</v>
+        <v>17.206736</v>
       </c>
       <c r="O16">
-        <v>0.04310163662296541</v>
+        <v>0.3563806579119439</v>
       </c>
       <c r="P16">
-        <v>0.04310163662296541</v>
+        <v>0.3563806579119438</v>
       </c>
       <c r="Q16">
-        <v>0.1041760140244444</v>
+        <v>0.2319353301226666</v>
       </c>
       <c r="R16">
-        <v>0.93758412622</v>
+        <v>2.087417971104</v>
       </c>
       <c r="S16">
-        <v>0.00620196060140819</v>
+        <v>0.005003621087574966</v>
       </c>
       <c r="T16">
-        <v>0.006201960601408191</v>
+        <v>0.005003621087574966</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H17">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>3.343124333333333</v>
+        <v>0.9950096666666667</v>
       </c>
       <c r="N17">
-        <v>10.029373</v>
+        <v>2.985029</v>
       </c>
       <c r="O17">
-        <v>0.4627201201025244</v>
+        <v>0.06182500846797627</v>
       </c>
       <c r="P17">
-        <v>0.4627201201025245</v>
+        <v>0.06182500846797626</v>
       </c>
       <c r="Q17">
-        <v>1.118387641352556</v>
+        <v>0.5358979446614446</v>
       </c>
       <c r="R17">
-        <v>10.065488772173</v>
+        <v>4.823081501953</v>
       </c>
       <c r="S17">
-        <v>0.06658150778491903</v>
+        <v>0.0115611116912543</v>
       </c>
       <c r="T17">
-        <v>0.06658150778491903</v>
+        <v>0.01156111169125429</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.076847</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H18">
-        <v>0.230541</v>
+        <v>1.615757</v>
       </c>
       <c r="I18">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J18">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,27 +1556,27 @@
         <v>3.652139</v>
       </c>
       <c r="O18">
-        <v>0.1684968937451138</v>
+        <v>0.07564198692918106</v>
       </c>
       <c r="P18">
-        <v>0.1684968937451139</v>
+        <v>0.07564198692918103</v>
       </c>
       <c r="Q18">
-        <v>0.09355197524433334</v>
+        <v>0.6556632393581112</v>
       </c>
       <c r="R18">
-        <v>0.841967777199</v>
+        <v>5.900969154223001</v>
       </c>
       <c r="S18">
-        <v>0.005569474605863946</v>
+        <v>0.01414484981250962</v>
       </c>
       <c r="T18">
-        <v>0.005569474605863947</v>
+        <v>0.01414484981250962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.076847</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H19">
-        <v>0.230541</v>
+        <v>1.615757</v>
       </c>
       <c r="I19">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J19">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.353027666666667</v>
+        <v>7.845392666666666</v>
       </c>
       <c r="N19">
-        <v>7.059083</v>
+        <v>23.536178</v>
       </c>
       <c r="O19">
-        <v>0.3256813495293962</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="P19">
-        <v>0.3256813495293963</v>
+        <v>0.4874741264335444</v>
       </c>
       <c r="Q19">
-        <v>0.1808231171003333</v>
+        <v>4.225416039638445</v>
       </c>
       <c r="R19">
-        <v>1.627408053903</v>
+        <v>38.028744356746</v>
       </c>
       <c r="S19">
-        <v>0.01076502934559333</v>
+        <v>0.09115636151047181</v>
       </c>
       <c r="T19">
-        <v>0.01076502934559333</v>
+        <v>0.0911563615104718</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.076847</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H20">
-        <v>0.230541</v>
+        <v>1.615757</v>
       </c>
       <c r="I20">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J20">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3114066666666667</v>
+        <v>0.3006066666666667</v>
       </c>
       <c r="N20">
-        <v>0.9342200000000001</v>
+        <v>0.9018200000000001</v>
       </c>
       <c r="O20">
-        <v>0.04310163662296541</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="P20">
-        <v>0.04310163662296541</v>
+        <v>0.0186782202573544</v>
       </c>
       <c r="Q20">
-        <v>0.02393066811333333</v>
+        <v>0.1619024419711111</v>
       </c>
       <c r="R20">
-        <v>0.21537601302</v>
+        <v>1.45712197774</v>
       </c>
       <c r="S20">
-        <v>0.001424675940945899</v>
+        <v>0.003492777371813456</v>
       </c>
       <c r="T20">
-        <v>0.0014246759409459</v>
+        <v>0.003492777371813456</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.076847</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H21">
-        <v>0.230541</v>
+        <v>1.615757</v>
       </c>
       <c r="I21">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J21">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.343124333333333</v>
+        <v>5.735578666666666</v>
       </c>
       <c r="N21">
-        <v>10.029373</v>
+        <v>17.206736</v>
       </c>
       <c r="O21">
-        <v>0.4627201201025244</v>
+        <v>0.3563806579119439</v>
       </c>
       <c r="P21">
-        <v>0.4627201201025245</v>
+        <v>0.3563806579119438</v>
       </c>
       <c r="Q21">
-        <v>0.2569090756436667</v>
+        <v>3.089100459905778</v>
       </c>
       <c r="R21">
-        <v>2.312181680793</v>
+        <v>27.801904139152</v>
       </c>
       <c r="S21">
-        <v>0.01529469120322022</v>
+        <v>0.06664223253372954</v>
       </c>
       <c r="T21">
-        <v>0.01529469120322022</v>
+        <v>0.06664223253372953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.227751</v>
+      </c>
+      <c r="H22">
+        <v>0.683253</v>
+      </c>
+      <c r="I22">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J22">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.9950096666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.985029</v>
+      </c>
+      <c r="O22">
+        <v>0.06182500846797627</v>
+      </c>
+      <c r="P22">
+        <v>0.06182500846797626</v>
+      </c>
+      <c r="Q22">
+        <v>0.226614446593</v>
+      </c>
+      <c r="R22">
+        <v>2.039530019337</v>
+      </c>
+      <c r="S22">
+        <v>0.004888831827053555</v>
+      </c>
+      <c r="T22">
+        <v>0.004888831827053554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.227751</v>
+      </c>
+      <c r="H23">
+        <v>0.683253</v>
+      </c>
+      <c r="I23">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J23">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.217379666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.652139</v>
+      </c>
+      <c r="O23">
+        <v>0.07564198692918106</v>
+      </c>
+      <c r="P23">
+        <v>0.07564198692918103</v>
+      </c>
+      <c r="Q23">
+        <v>0.2772594364630001</v>
+      </c>
+      <c r="R23">
+        <v>2.495334928167</v>
+      </c>
+      <c r="S23">
+        <v>0.005981413708216417</v>
+      </c>
+      <c r="T23">
+        <v>0.005981413708216416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.227751</v>
+      </c>
+      <c r="H24">
+        <v>0.683253</v>
+      </c>
+      <c r="I24">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J24">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.845392666666666</v>
+      </c>
+      <c r="N24">
+        <v>23.536178</v>
+      </c>
+      <c r="O24">
+        <v>0.4874741264335444</v>
+      </c>
+      <c r="P24">
+        <v>0.4874741264335444</v>
+      </c>
+      <c r="Q24">
+        <v>1.786796025226</v>
+      </c>
+      <c r="R24">
+        <v>16.081164227034</v>
+      </c>
+      <c r="S24">
+        <v>0.03854716858482704</v>
+      </c>
+      <c r="T24">
+        <v>0.03854716858482704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.227751</v>
+      </c>
+      <c r="H25">
+        <v>0.683253</v>
+      </c>
+      <c r="I25">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J25">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3006066666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.9018200000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0186782202573544</v>
+      </c>
+      <c r="P25">
+        <v>0.0186782202573544</v>
+      </c>
+      <c r="Q25">
+        <v>0.06846346894000001</v>
+      </c>
+      <c r="R25">
+        <v>0.6161712204600001</v>
+      </c>
+      <c r="S25">
+        <v>0.001476986092354023</v>
+      </c>
+      <c r="T25">
+        <v>0.001476986092354023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.227751</v>
+      </c>
+      <c r="H26">
+        <v>0.683253</v>
+      </c>
+      <c r="I26">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J26">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.735578666666666</v>
+      </c>
+      <c r="N26">
+        <v>17.206736</v>
+      </c>
+      <c r="O26">
+        <v>0.3563806579119439</v>
+      </c>
+      <c r="P26">
+        <v>0.3563806579119438</v>
+      </c>
+      <c r="Q26">
+        <v>1.306283776912</v>
+      </c>
+      <c r="R26">
+        <v>11.756553992208</v>
+      </c>
+      <c r="S26">
+        <v>0.02818091167506519</v>
+      </c>
+      <c r="T26">
+        <v>0.02818091167506518</v>
       </c>
     </row>
   </sheetData>
